--- a/src/data/cm-direct/API_DATA.xlsx
+++ b/src/data/cm-direct/API_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sasikumar.b\Desktop\CoverMore\APIAutomationFramework\PenguineAutomationFrameworkAPI\src\data\cm-direct\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666D0516-35DE-4149-B9EB-6A312E2C56FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB7365D-797C-4414-89CC-02182450DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13650" tabRatio="799" xr2:uid="{C08C249B-4850-46F8-8D4B-1D291C629E68}"/>
   </bookViews>
@@ -1155,7 +1155,7 @@
   <dimension ref="A1:AU75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,22 +1340,22 @@
       </c>
       <c r="G2" s="4">
         <f ca="1">TODAY()+F2</f>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H2" s="4" t="str">
         <f ca="1">TEXT(G2, "YYYY-MM-DD")</f>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
       </c>
       <c r="J2" s="4">
         <f ca="1">(DATE(LEFT(H2,4),MID(H2,6,2), RIGHT(H2,2)))+(I2-1)</f>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="K2" s="4" t="str">
         <f ca="1">TEXT(J2, "yyyy-mm-dd")</f>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G66" ca="1" si="0">TODAY()+F3</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" ca="1" si="1">TEXT(G3, "YYYY-MM-DD")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J65" ca="1" si="2">(DATE(LEFT(H3,4),MID(H3,6,2), RIGHT(H3,2)))+(I3-1)</f>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K65" ca="1" si="3">TEXT(J3, "yyyy-mm-dd")</f>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>4</v>
@@ -1540,22 +1540,22 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45712</v>
+        <v>45718</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-24</v>
+        <v>2025-03-02</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>4</v>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45728</v>
+        <v>45734</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-12</v>
+        <v>2025-03-18</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>4</v>
@@ -1745,22 +1745,22 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>4</v>
@@ -1849,22 +1849,22 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>4</v>
@@ -1951,22 +1951,22 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>4</v>
@@ -2053,22 +2053,22 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>4</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B10" s="28" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -2155,22 +2155,22 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45704</v>
+        <v>45710</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-16</v>
+        <v>2025-02-22</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45704</v>
+        <v>45710</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-16</v>
+        <v>2025-02-22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>16</v>
@@ -2259,22 +2259,22 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>16</v>
@@ -2363,22 +2363,22 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>16</v>
@@ -2467,22 +2467,22 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>16</v>
@@ -2569,22 +2569,22 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-28</v>
+        <v>2025-03-06</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-28</v>
+        <v>2025-03-06</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>16</v>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>16</v>
@@ -2758,7 +2758,7 @@
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -2774,22 +2774,22 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>16</v>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="17" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -2877,22 +2877,22 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>16</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -2979,22 +2979,22 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>16</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="19" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B19" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -3081,22 +3081,22 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>16</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="20" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B20" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>3</v>
@@ -3185,22 +3185,22 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>16</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="21" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>3</v>
@@ -3289,22 +3289,22 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>16</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="22" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>3</v>
@@ -3393,22 +3393,22 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>16</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="23" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -3495,22 +3495,22 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>16</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="24" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B24" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>16</v>
@@ -3699,22 +3699,22 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>16</v>
@@ -3803,22 +3803,22 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>16</v>
@@ -3908,22 +3908,22 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>16</v>
@@ -4013,22 +4013,22 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
@@ -4114,22 +4114,22 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>16</v>
@@ -4215,22 +4215,22 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>16</v>
@@ -4316,22 +4316,22 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>16</v>
@@ -4402,22 +4402,22 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>166</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>16</v>
@@ -4488,22 +4488,22 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>167</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>16</v>
@@ -4574,22 +4574,22 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I34" s="4">
         <v>30</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>16</v>
@@ -4660,22 +4660,22 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I35" s="4">
         <v>45</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>16</v>
@@ -4746,22 +4746,22 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I36" s="4">
         <v>60</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>16</v>
@@ -4832,22 +4832,22 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I37" s="4">
         <v>30</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>16</v>
@@ -4920,22 +4920,22 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I38" s="4">
         <v>45</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>16</v>
@@ -5008,22 +5008,22 @@
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I39" s="4">
         <v>60</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>16</v>
@@ -5096,22 +5096,22 @@
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I40" s="4">
         <v>30</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>16</v>
@@ -5184,22 +5184,22 @@
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I41" s="4">
         <v>45</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>16</v>
@@ -5272,22 +5272,22 @@
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I42" s="4">
         <v>60</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>16</v>
@@ -5360,22 +5360,22 @@
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I43" s="4">
         <v>30</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>16</v>
@@ -5448,22 +5448,22 @@
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I44" s="4">
         <v>45</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>16</v>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I45" s="4">
         <v>60</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>16</v>
@@ -5624,22 +5624,22 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I46" s="4">
         <v>30</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>16</v>
@@ -5710,22 +5710,22 @@
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I47" s="4">
         <v>45</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>16</v>
@@ -5796,22 +5796,22 @@
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I48" s="4">
         <v>60</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>16</v>
@@ -5883,22 +5883,22 @@
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I49" s="4">
         <v>30</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>16</v>
@@ -5970,22 +5970,22 @@
       </c>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I50" s="4">
         <v>45</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>16</v>
@@ -6056,22 +6056,22 @@
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I51" s="4">
         <v>60</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>16</v>
@@ -6142,22 +6142,22 @@
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I52" s="4">
         <v>30</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>16</v>
@@ -6228,22 +6228,22 @@
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I53" s="4">
         <v>45</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>16</v>
@@ -6314,22 +6314,22 @@
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I54" s="4">
         <v>60</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>16</v>
@@ -6400,22 +6400,22 @@
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I55" s="4">
         <v>30</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>16</v>
@@ -6488,22 +6488,22 @@
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I56" s="4">
         <v>45</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>16</v>
@@ -6576,22 +6576,22 @@
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I57" s="4">
         <v>60</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>16</v>
@@ -6664,22 +6664,22 @@
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I58" s="4">
         <v>30</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>16</v>
@@ -6752,22 +6752,22 @@
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I59" s="4">
         <v>45</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>16</v>
@@ -6840,22 +6840,22 @@
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I60" s="4">
         <v>60</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>16</v>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I61" s="4">
         <v>30</v>
       </c>
       <c r="J61" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>16</v>
@@ -7016,22 +7016,22 @@
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I62" s="4">
         <v>45</v>
       </c>
       <c r="J62" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45740</v>
+        <v>45746</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-24</v>
+        <v>2025-03-30</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>16</v>
@@ -7104,22 +7104,22 @@
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I63" s="4">
         <v>60</v>
       </c>
       <c r="J63" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45755</v>
+        <v>45761</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-08</v>
+        <v>2025-04-14</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>16</v>
@@ -7192,22 +7192,22 @@
       </c>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I64" s="4">
         <v>1</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>4</v>
@@ -7276,22 +7276,22 @@
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>4</v>
@@ -7362,22 +7362,22 @@
       </c>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" ref="J66:J75" ca="1" si="4">(DATE(LEFT(H66,4),MID(H66,6,2), RIGHT(H66,2)))+(I66-1)</f>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" ref="K66:K75" ca="1" si="5">TEXT(J66, "yyyy-mm-dd")</f>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>4</v>
@@ -7446,22 +7446,22 @@
       </c>
       <c r="G67" s="4">
         <f t="shared" ref="G67:G75" ca="1" si="6">TODAY()+F67</f>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ref="H67:H75" ca="1" si="7">TEXT(G67, "YYYY-MM-DD")</f>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I67" s="4">
         <v>1</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>4</v>
@@ -7532,22 +7532,22 @@
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45710</v>
+        <v>45716</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-02-22</v>
+        <v>2025-02-28</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>4</v>
@@ -7618,22 +7618,22 @@
       </c>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>4</v>
@@ -7704,22 +7704,22 @@
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J70" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45710</v>
+        <v>45716</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-02-22</v>
+        <v>2025-02-28</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>4</v>
@@ -7792,22 +7792,22 @@
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>4</v>
@@ -7880,22 +7880,22 @@
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45710</v>
+        <v>45716</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-02-22</v>
+        <v>2025-02-28</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>4</v>
@@ -7966,22 +7966,22 @@
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J73" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>4</v>
@@ -8052,22 +8052,22 @@
       </c>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45710</v>
+        <v>45716</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-02-22</v>
+        <v>2025-02-28</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>4</v>
@@ -8140,22 +8140,22 @@
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J75" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45725</v>
+        <v>45731</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-09</v>
+        <v>2025-03-15</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>4</v>
@@ -8382,22 +8382,22 @@
       </c>
       <c r="G2" s="4">
         <f ca="1">TODAY()+F2</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H2" s="4" t="str">
         <f ca="1">TEXT(G2, "YYYY-MM-DD")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
       </c>
       <c r="J2" s="4">
         <f ca="1">(DATE(LEFT(H2,4),MID(H2,6,2), RIGHT(H2,2)))+(I2-1)</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K2" s="4" t="str">
         <f t="shared" ref="K2:K63" ca="1" si="0">TEXT(J2, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>4</v>
@@ -8473,22 +8473,22 @@
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G66" ca="1" si="1">TODAY()+F3</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="shared" ref="H3:H66" ca="1" si="2">TEXT(G3, "YYYY-MM-DD")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J66" ca="1" si="3">(DATE(LEFT(H3,4),MID(H3,6,2), RIGHT(H3,2)))+(I3-1)</f>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>4</v>
@@ -8565,22 +8565,22 @@
       </c>
       <c r="G4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="I4" s="4">
         <v>1</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="K4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>70</v>
@@ -8653,22 +8653,22 @@
       </c>
       <c r="G5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="K5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>70</v>
@@ -8741,22 +8741,22 @@
       </c>
       <c r="G6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="K6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>70</v>
@@ -8829,22 +8829,22 @@
       </c>
       <c r="G7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45698</v>
+        <v>45704</v>
       </c>
       <c r="K7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-10</v>
+        <v>2025-02-16</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>70</v>
@@ -8915,22 +8915,22 @@
       </c>
       <c r="G8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>70</v>
@@ -9001,22 +9001,22 @@
       </c>
       <c r="G9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="K9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>70</v>
@@ -9087,22 +9087,22 @@
       </c>
       <c r="G10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>16</v>
@@ -9183,22 +9183,22 @@
       </c>
       <c r="G11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>16</v>
@@ -9271,22 +9271,22 @@
       </c>
       <c r="G12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>16</v>
@@ -9359,22 +9359,22 @@
       </c>
       <c r="G13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45695</v>
+        <v>45701</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-07</v>
+        <v>2025-02-13</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45695</v>
+        <v>45701</v>
       </c>
       <c r="K13" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-07</v>
+        <v>2025-02-13</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>16</v>
@@ -9445,22 +9445,22 @@
       </c>
       <c r="G14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K14" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>16</v>
@@ -9531,22 +9531,22 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K15" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>16</v>
@@ -9617,22 +9617,22 @@
       </c>
       <c r="G16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="K16" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>16</v>
@@ -9705,22 +9705,22 @@
       </c>
       <c r="G17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>16</v>
@@ -9791,22 +9791,22 @@
       </c>
       <c r="G18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K18" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>16</v>
@@ -9877,22 +9877,22 @@
       </c>
       <c r="G19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>16</v>
@@ -9965,22 +9965,22 @@
       </c>
       <c r="G20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>16</v>
@@ -10053,22 +10053,22 @@
       </c>
       <c r="G21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K21" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>16</v>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="G22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>16</v>
@@ -10227,22 +10227,22 @@
       </c>
       <c r="G23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I23" s="4">
         <v>1</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K23" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>16</v>
@@ -10313,22 +10313,22 @@
       </c>
       <c r="G24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K24" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>16</v>
@@ -10399,22 +10399,22 @@
       </c>
       <c r="G25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I25" s="4">
         <v>1</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K25" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>16</v>
@@ -10487,22 +10487,22 @@
       </c>
       <c r="G26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I26" s="4">
         <v>1</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>16</v>
@@ -10575,22 +10575,22 @@
       </c>
       <c r="G27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K27" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>16</v>
@@ -10663,22 +10663,22 @@
       </c>
       <c r="G28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I28" s="4">
         <v>30</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>16</v>
@@ -10751,22 +10751,22 @@
       </c>
       <c r="G29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I29" s="4">
         <v>45</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>16</v>
@@ -10839,22 +10839,22 @@
       </c>
       <c r="G30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I30" s="4">
         <v>60</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>16</v>
@@ -10927,22 +10927,22 @@
       </c>
       <c r="G31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I31" s="4">
         <v>30</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K31" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>16</v>
@@ -11015,22 +11015,22 @@
       </c>
       <c r="G32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I32" s="4">
         <v>45</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>16</v>
@@ -11103,22 +11103,22 @@
       </c>
       <c r="G33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I33" s="4">
         <v>60</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K33" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>16</v>
@@ -11191,22 +11191,22 @@
       </c>
       <c r="G34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I34" s="4">
         <v>30</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K34" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>16</v>
@@ -11279,22 +11279,22 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H35" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I35" s="4">
         <v>45</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K35" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>16</v>
@@ -11367,22 +11367,22 @@
       </c>
       <c r="G36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I36" s="4">
         <v>60</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K36" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>16</v>
@@ -11455,22 +11455,22 @@
       </c>
       <c r="G37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H37" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I37" s="4">
         <v>30</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K37" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>16</v>
@@ -11545,22 +11545,22 @@
       </c>
       <c r="G38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H38" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I38" s="4">
         <v>45</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K38" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>16</v>
@@ -11635,22 +11635,22 @@
       </c>
       <c r="G39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H39" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I39" s="4">
         <v>60</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>16</v>
@@ -11725,22 +11725,22 @@
       </c>
       <c r="G40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I40" s="4">
         <v>30</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>16</v>
@@ -11815,22 +11815,22 @@
       </c>
       <c r="G41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H41" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I41" s="4">
         <v>45</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>16</v>
@@ -11905,22 +11905,22 @@
       </c>
       <c r="G42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I42" s="4">
         <v>60</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K42" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>16</v>
@@ -11995,22 +11995,22 @@
       </c>
       <c r="G43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H43" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I43" s="4">
         <v>30</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K43" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>16</v>
@@ -12085,22 +12085,22 @@
       </c>
       <c r="G44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I44" s="4">
         <v>45</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K44" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>16</v>
@@ -12175,22 +12175,22 @@
       </c>
       <c r="G45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H45" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I45" s="4">
         <v>60</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K45" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>16</v>
@@ -12265,22 +12265,22 @@
       </c>
       <c r="G46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H46" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I46" s="4">
         <v>30</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K46" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>16</v>
@@ -12353,22 +12353,22 @@
       </c>
       <c r="G47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H47" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I47" s="4">
         <v>45</v>
       </c>
       <c r="J47" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K47" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>16</v>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="G48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H48" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I48" s="4">
         <v>60</v>
       </c>
       <c r="J48" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K48" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>16</v>
@@ -12529,22 +12529,22 @@
       </c>
       <c r="G49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H49" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I49" s="4">
         <v>30</v>
       </c>
       <c r="J49" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K49" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>16</v>
@@ -12617,22 +12617,22 @@
       </c>
       <c r="G50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H50" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I50" s="4">
         <v>45</v>
       </c>
       <c r="J50" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K50" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>16</v>
@@ -12705,22 +12705,22 @@
       </c>
       <c r="G51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H51" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I51" s="4">
         <v>60</v>
       </c>
       <c r="J51" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K51" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>16</v>
@@ -12793,22 +12793,22 @@
       </c>
       <c r="G52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H52" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I52" s="4">
         <v>30</v>
       </c>
       <c r="J52" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K52" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>16</v>
@@ -12881,22 +12881,22 @@
       </c>
       <c r="G53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I53" s="4">
         <v>45</v>
       </c>
       <c r="J53" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K53" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>16</v>
@@ -12969,22 +12969,22 @@
       </c>
       <c r="G54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I54" s="4">
         <v>60</v>
       </c>
       <c r="J54" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K54" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>16</v>
@@ -13057,22 +13057,22 @@
       </c>
       <c r="G55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H55" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I55" s="4">
         <v>30</v>
       </c>
       <c r="J55" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K55" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>16</v>
@@ -13147,22 +13147,22 @@
       </c>
       <c r="G56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H56" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I56" s="4">
         <v>45</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K56" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>16</v>
@@ -13237,22 +13237,22 @@
       </c>
       <c r="G57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H57" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I57" s="4">
         <v>60</v>
       </c>
       <c r="J57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K57" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>16</v>
@@ -13327,22 +13327,22 @@
       </c>
       <c r="G58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H58" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I58" s="4">
         <v>30</v>
       </c>
       <c r="J58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K58" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>16</v>
@@ -13417,22 +13417,22 @@
       </c>
       <c r="G59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I59" s="4">
         <v>45</v>
       </c>
       <c r="J59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L59" s="4" t="s">
         <v>16</v>
@@ -13507,22 +13507,22 @@
       </c>
       <c r="G60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H60" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I60" s="4">
         <v>60</v>
       </c>
       <c r="J60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K60" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>16</v>
@@ -13597,22 +13597,22 @@
       </c>
       <c r="G61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H61" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I61" s="4">
         <v>30</v>
       </c>
       <c r="J61" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K61" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L61" s="4" t="s">
         <v>16</v>
@@ -13687,22 +13687,22 @@
       </c>
       <c r="G62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I62" s="4">
         <v>45</v>
       </c>
       <c r="J62" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="L62" s="4" t="s">
         <v>16</v>
@@ -13777,22 +13777,22 @@
       </c>
       <c r="G63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I63" s="4">
         <v>60</v>
       </c>
       <c r="J63" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>16</v>
@@ -13867,22 +13867,22 @@
       </c>
       <c r="G64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H64" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I64" s="4">
         <v>1</v>
       </c>
       <c r="J64" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K64" s="4" t="str">
         <f t="shared" ref="K64:K75" ca="1" si="4">TEXT(J64, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>4</v>
@@ -13953,22 +13953,22 @@
       </c>
       <c r="G65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H65" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I65" s="4">
         <v>1</v>
       </c>
       <c r="J65" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K65" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>4</v>
@@ -14041,22 +14041,22 @@
       </c>
       <c r="G66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H66" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I66" s="4">
         <v>1</v>
       </c>
       <c r="J66" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K66" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L66" s="4" t="s">
         <v>4</v>
@@ -14127,22 +14127,22 @@
       </c>
       <c r="G67" s="4">
         <f t="shared" ref="G67:G75" ca="1" si="5">TODAY()+F67</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H67" s="4" t="str">
         <f t="shared" ref="H67:H75" ca="1" si="6">TEXT(G67, "YYYY-MM-DD")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I67" s="4">
         <v>1</v>
       </c>
       <c r="J67" s="4">
         <f t="shared" ref="J67:J75" ca="1" si="7">(DATE(LEFT(H67,4),MID(H67,6,2), RIGHT(H67,2)))+(I67-1)</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="K67" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>4</v>
@@ -14215,22 +14215,22 @@
       </c>
       <c r="G68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H68" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="K68" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>4</v>
@@ -14303,22 +14303,22 @@
       </c>
       <c r="G69" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H69" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J69" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K69" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>4</v>
@@ -14391,22 +14391,22 @@
       </c>
       <c r="G70" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H70" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J70" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="K70" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>4</v>
@@ -14481,22 +14481,22 @@
       </c>
       <c r="G71" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H71" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J71" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K71" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>4</v>
@@ -14571,22 +14571,22 @@
       </c>
       <c r="G72" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H72" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J72" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="K72" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>4</v>
@@ -14659,22 +14659,22 @@
       </c>
       <c r="G73" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H73" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J73" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K73" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>4</v>
@@ -14747,22 +14747,22 @@
       </c>
       <c r="G74" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H74" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>73</v>
       </c>
       <c r="J74" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="K74" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>4</v>
@@ -14837,22 +14837,22 @@
       </c>
       <c r="G75" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="H75" s="4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>74</v>
       </c>
       <c r="J75" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="K75" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>4</v>
@@ -15075,22 +15075,22 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()+G2</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I2" s="4" t="str">
         <f ca="1">TEXT(H2, "YYYY-MM-DD")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="4">
         <f ca="1">(DATE(LEFT(I2,4),MID(I2,6,2), RIGHT(I2,2)))+(J2-1)</f>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="L2" s="4" t="str">
         <f ca="1">TEXT(K2, "yyyy-mm-dd")</f>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>4</v>
@@ -15172,22 +15172,22 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+G3</f>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I66" ca="1" si="1">TEXT(H3, "YYYY-MM-DD")</f>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K60" ca="1" si="2">(DATE(LEFT(I3,4),MID(I3,6,2), RIGHT(I3,2)))+(J3-1)</f>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ref="L3:L60" ca="1" si="3">TEXT(K3, "yyyy-mm-dd")</f>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>4</v>
@@ -15262,22 +15262,22 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>16</v>
@@ -15354,22 +15354,22 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>16</v>
@@ -15446,22 +15446,22 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>16</v>
@@ -15538,22 +15538,22 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>16</v>
@@ -15628,22 +15628,22 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>16</v>
@@ -15718,22 +15718,22 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>16</v>
@@ -15808,22 +15808,22 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>16</v>
@@ -15898,22 +15898,22 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>16</v>
@@ -15988,22 +15988,22 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>16</v>
@@ -16078,22 +16078,22 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>16</v>
@@ -16170,22 +16170,22 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>16</v>
@@ -16262,22 +16262,22 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>16</v>
@@ -16354,22 +16354,22 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>16</v>
@@ -16444,22 +16444,22 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>16</v>
@@ -16534,22 +16534,22 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>16</v>
@@ -16624,22 +16624,22 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>16</v>
@@ -16716,22 +16716,22 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>16</v>
@@ -16808,22 +16808,22 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>16</v>
@@ -16900,22 +16900,22 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J22" s="4">
         <v>30</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45729</v>
+        <v>45735</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-13</v>
+        <v>2025-03-19</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>16</v>
@@ -16992,22 +16992,22 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J23" s="4">
         <v>45</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45745</v>
+        <v>45751</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-29</v>
+        <v>2025-04-04</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>16</v>
@@ -17084,22 +17084,22 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J24" s="4">
         <v>60</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-15</v>
+        <v>2025-04-21</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>16</v>
@@ -17176,22 +17176,22 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J25" s="4">
         <v>30</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>16</v>
@@ -17268,22 +17268,22 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J26" s="4">
         <v>45</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45743</v>
+        <v>45749</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-27</v>
+        <v>2025-04-02</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>16</v>
@@ -17360,22 +17360,22 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J27" s="4">
         <v>60</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-12</v>
+        <v>2025-04-18</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>16</v>
@@ -17452,22 +17452,22 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J28" s="4">
         <v>30</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45730</v>
+        <v>45736</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-14</v>
+        <v>2025-03-20</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>16</v>
@@ -17544,22 +17544,22 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J29" s="4">
         <v>45</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45747</v>
+        <v>45753</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-31</v>
+        <v>2025-04-06</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>16</v>
@@ -17636,22 +17636,22 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J30" s="4">
         <v>60</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>16</v>
@@ -17728,22 +17728,22 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45728</v>
+        <v>45734</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-12</v>
+        <v>2025-03-18</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>16</v>
@@ -17822,22 +17822,22 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J32" s="4">
         <v>45</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-28</v>
+        <v>2025-04-03</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
@@ -17916,22 +17916,22 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J33" s="4">
         <v>60</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-13</v>
+        <v>2025-04-19</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
@@ -18010,22 +18010,22 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J34" s="4">
         <v>30</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>16</v>
@@ -18104,22 +18104,22 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J35" s="4">
         <v>45</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-28</v>
+        <v>2025-04-03</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
@@ -18198,22 +18198,22 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J36" s="4">
         <v>60</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-13</v>
+        <v>2025-04-19</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
@@ -18292,22 +18292,22 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J37" s="4">
         <v>30</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>16</v>
@@ -18386,22 +18386,22 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J38" s="4">
         <v>45</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>16</v>
@@ -18480,22 +18480,22 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J39" s="4">
         <v>60</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45758</v>
+        <v>45764</v>
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-11</v>
+        <v>2025-04-17</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>16</v>
@@ -18574,22 +18574,22 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J40" s="4">
         <v>30</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45729</v>
+        <v>45735</v>
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-13</v>
+        <v>2025-03-19</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>16</v>
@@ -18666,22 +18666,22 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J41" s="4">
         <v>45</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45745</v>
+        <v>45751</v>
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-29</v>
+        <v>2025-04-04</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>16</v>
@@ -18758,22 +18758,22 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J42" s="4">
         <v>60</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45762</v>
+        <v>45768</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-15</v>
+        <v>2025-04-21</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>16</v>
@@ -18851,22 +18851,22 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J43" s="4">
         <v>30</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>16</v>
@@ -18944,22 +18944,22 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J44" s="4">
         <v>45</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45743</v>
+        <v>45749</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-27</v>
+        <v>2025-04-02</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>16</v>
@@ -19036,22 +19036,22 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J45" s="4">
         <v>60</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-12</v>
+        <v>2025-04-18</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>16</v>
@@ -19128,22 +19128,22 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J46" s="4">
         <v>30</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45730</v>
+        <v>45736</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-14</v>
+        <v>2025-03-20</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>16</v>
@@ -19220,22 +19220,22 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J47" s="4">
         <v>45</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45747</v>
+        <v>45753</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-31</v>
+        <v>2025-04-06</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>16</v>
@@ -19312,22 +19312,22 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I48" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J48" s="4">
         <v>60</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45759</v>
+        <v>45765</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-12</v>
+        <v>2025-04-18</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
@@ -19404,22 +19404,22 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J49" s="4">
         <v>30</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45730</v>
+        <v>45736</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-14</v>
+        <v>2025-03-20</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>16</v>
@@ -19498,22 +19498,22 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J50" s="4">
         <v>45</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45747</v>
+        <v>45753</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-31</v>
+        <v>2025-04-06</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>16</v>
@@ -19592,22 +19592,22 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J51" s="4">
         <v>60</v>
       </c>
       <c r="K51" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>16</v>
@@ -19686,22 +19686,22 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J52" s="4">
         <v>30</v>
       </c>
       <c r="K52" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45728</v>
+        <v>45734</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-12</v>
+        <v>2025-03-18</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
@@ -19780,22 +19780,22 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J53" s="4">
         <v>45</v>
       </c>
       <c r="K53" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-28</v>
+        <v>2025-04-03</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>16</v>
@@ -19874,22 +19874,22 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I54" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J54" s="4">
         <v>60</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45760</v>
+        <v>45766</v>
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-13</v>
+        <v>2025-04-19</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>16</v>
@@ -19968,22 +19968,22 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J55" s="4">
         <v>30</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>16</v>
@@ -20062,22 +20062,22 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I56" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J56" s="4">
         <v>45</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>16</v>
@@ -20156,22 +20156,22 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="J57" s="4">
         <v>60</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45758</v>
+        <v>45764</v>
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-04-11</v>
+        <v>2025-04-17</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>16</v>
@@ -20250,22 +20250,22 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>4</v>
@@ -20340,22 +20340,22 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45701</v>
+        <v>45707</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-13</v>
+        <v>2025-02-19</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>4</v>
@@ -20432,22 +20432,22 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J60" s="4">
         <v>1</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>4</v>
@@ -20522,22 +20522,22 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I61" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J61" s="4">
         <v>1</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" ref="K61:K69" ca="1" si="4">(DATE(LEFT(I61,4),MID(I61,6,2), RIGHT(I61,2)))+(J61-1)</f>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" ref="L61:L69" ca="1" si="5">TEXT(K61, "yyyy-mm-dd")</f>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>4</v>
@@ -20614,22 +20614,22 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45717</v>
+        <v>45723</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-01</v>
+        <v>2025-03-07</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>4</v>
@@ -20706,22 +20706,22 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>4</v>
@@ -20798,22 +20798,22 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45717</v>
+        <v>45723</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-01</v>
+        <v>2025-03-07</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>4</v>
@@ -20892,22 +20892,22 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>4</v>
@@ -20986,22 +20986,22 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45717</v>
+        <v>45723</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-01</v>
+        <v>2025-03-07</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>4</v>
@@ -21078,22 +21078,22 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" ref="H67:H69" ca="1" si="6">TODAY()+G67</f>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="7">TEXT(H67, "YYYY-MM-DD")</f>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>4</v>
@@ -21170,22 +21170,22 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45717</v>
+        <v>45723</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-01</v>
+        <v>2025-03-07</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>4</v>
@@ -21264,22 +21264,22 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2025-03-16</v>
+        <v>2025-03-22</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>4</v>
@@ -21516,22 +21516,22 @@
       </c>
       <c r="H2" s="4">
         <f ca="1">TODAY()+G2</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I2" s="4" t="str">
         <f ca="1">TEXT(H2, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="4">
         <f ca="1">(DATE(LEFT(I2,4),MID(I2,6,2), RIGHT(I2,2)))+(J2-1)</f>
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="L2" s="4" t="str">
         <f t="shared" ref="L2:L59" ca="1" si="0">TEXT(K2, "yyyy-mm-dd")</f>
-        <v>2025-02-11</v>
+        <v>2025-02-17</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>4</v>
@@ -21610,22 +21610,22 @@
       </c>
       <c r="H3" s="4">
         <f t="shared" ref="H3:H66" ca="1" si="1">TODAY()+G3</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I66" ca="1" si="2">TEXT(H3, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:K60" ca="1" si="3">(DATE(LEFT(I3,4),MID(I3,6,2), RIGHT(I3,2)))+(J3-1)</f>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L3" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>4</v>
@@ -21708,22 +21708,22 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45696</v>
+        <v>45702</v>
       </c>
       <c r="L4" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-08</v>
+        <v>2025-02-14</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>16</v>
@@ -21810,22 +21810,22 @@
       </c>
       <c r="H5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="J5" s="4">
         <v>1</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45702</v>
+        <v>45708</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-14</v>
+        <v>2025-02-20</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>16</v>
@@ -21904,22 +21904,22 @@
       </c>
       <c r="H6" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="J6" s="4">
         <v>1</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45700</v>
+        <v>45706</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-12</v>
+        <v>2025-02-18</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>16</v>
@@ -21998,22 +21998,22 @@
       </c>
       <c r="H7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>16</v>
@@ -22090,22 +22090,22 @@
       </c>
       <c r="H8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>16</v>
@@ -22182,22 +22182,22 @@
       </c>
       <c r="H9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>16</v>
@@ -22274,22 +22274,22 @@
       </c>
       <c r="H10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="J10" s="4">
         <v>1</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45703</v>
+        <v>45709</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-15</v>
+        <v>2025-02-21</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>16</v>
@@ -22368,22 +22368,22 @@
       </c>
       <c r="H11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>16</v>
@@ -22460,22 +22460,22 @@
       </c>
       <c r="H12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>16</v>
@@ -22552,22 +22552,22 @@
       </c>
       <c r="H13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>16</v>
@@ -22646,22 +22646,22 @@
       </c>
       <c r="H14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>16</v>
@@ -22740,22 +22740,22 @@
       </c>
       <c r="H15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>16</v>
@@ -22834,22 +22834,22 @@
       </c>
       <c r="H16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>16</v>
@@ -22926,22 +22926,22 @@
       </c>
       <c r="H17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>16</v>
@@ -23018,22 +23018,22 @@
       </c>
       <c r="H18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>16</v>
@@ -23110,22 +23110,22 @@
       </c>
       <c r="H19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>16</v>
@@ -23204,22 +23204,22 @@
       </c>
       <c r="H20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>16</v>
@@ -23298,22 +23298,22 @@
       </c>
       <c r="H21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>16</v>
@@ -23392,22 +23392,22 @@
       </c>
       <c r="H22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J22" s="4">
         <v>30</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>16</v>
@@ -23486,22 +23486,22 @@
       </c>
       <c r="H23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J23" s="4">
         <v>45</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>16</v>
@@ -23580,22 +23580,22 @@
       </c>
       <c r="H24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J24" s="4">
         <v>60</v>
       </c>
       <c r="K24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>16</v>
@@ -23674,22 +23674,22 @@
       </c>
       <c r="H25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J25" s="4">
         <v>30</v>
       </c>
       <c r="K25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>16</v>
@@ -23768,22 +23768,22 @@
       </c>
       <c r="H26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J26" s="4">
         <v>45</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>16</v>
@@ -23862,22 +23862,22 @@
       </c>
       <c r="H27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J27" s="4">
         <v>60</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>16</v>
@@ -23956,22 +23956,22 @@
       </c>
       <c r="H28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J28" s="4">
         <v>30</v>
       </c>
       <c r="K28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>16</v>
@@ -24050,22 +24050,22 @@
       </c>
       <c r="H29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J29" s="4">
         <v>45</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>16</v>
@@ -24144,22 +24144,22 @@
       </c>
       <c r="H30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J30" s="4">
         <v>60</v>
       </c>
       <c r="K30" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>16</v>
@@ -24238,22 +24238,22 @@
       </c>
       <c r="H31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J31" s="4">
         <v>30</v>
       </c>
       <c r="K31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>16</v>
@@ -24334,22 +24334,22 @@
       </c>
       <c r="H32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J32" s="4">
         <v>45</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>16</v>
@@ -24430,22 +24430,22 @@
       </c>
       <c r="H33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I33" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J33" s="4">
         <v>60</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>16</v>
@@ -24526,22 +24526,22 @@
       </c>
       <c r="H34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I34" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J34" s="4">
         <v>30</v>
       </c>
       <c r="K34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>16</v>
@@ -24622,22 +24622,22 @@
       </c>
       <c r="H35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I35" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J35" s="4">
         <v>45</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>16</v>
@@ -24718,22 +24718,22 @@
       </c>
       <c r="H36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I36" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J36" s="4">
         <v>60</v>
       </c>
       <c r="K36" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>16</v>
@@ -24814,22 +24814,22 @@
       </c>
       <c r="H37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I37" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J37" s="4">
         <v>30</v>
       </c>
       <c r="K37" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>16</v>
@@ -24910,22 +24910,22 @@
       </c>
       <c r="H38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I38" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J38" s="4">
         <v>45</v>
       </c>
       <c r="K38" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>16</v>
@@ -25006,22 +25006,22 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I39" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J39" s="4">
         <v>60</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>16</v>
@@ -25102,22 +25102,22 @@
       </c>
       <c r="H40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I40" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J40" s="4">
         <v>30</v>
       </c>
       <c r="K40" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>16</v>
@@ -25196,22 +25196,22 @@
       </c>
       <c r="H41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I41" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J41" s="4">
         <v>45</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>16</v>
@@ -25290,22 +25290,22 @@
       </c>
       <c r="H42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I42" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J42" s="4">
         <v>60</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>16</v>
@@ -25384,22 +25384,22 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I43" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J43" s="4">
         <v>30</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>16</v>
@@ -25478,22 +25478,22 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I44" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J44" s="4">
         <v>45</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>16</v>
@@ -25572,22 +25572,22 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I45" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J45" s="4">
         <v>60</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>16</v>
@@ -25666,22 +25666,22 @@
       </c>
       <c r="H46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I46" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J46" s="4">
         <v>30</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>16</v>
@@ -25760,22 +25760,22 @@
       </c>
       <c r="H47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I47" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J47" s="4">
         <v>45</v>
       </c>
       <c r="K47" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>16</v>
@@ -25854,22 +25854,22 @@
       </c>
       <c r="H48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I48" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J48" s="4">
         <v>60</v>
       </c>
       <c r="K48" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>16</v>
@@ -25948,22 +25948,22 @@
       </c>
       <c r="H49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I49" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J49" s="4">
         <v>30</v>
       </c>
       <c r="K49" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>16</v>
@@ -26044,22 +26044,22 @@
       </c>
       <c r="H50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I50" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J50" s="4">
         <v>45</v>
       </c>
       <c r="K50" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>16</v>
@@ -26140,22 +26140,22 @@
       </c>
       <c r="H51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I51" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J51" s="4">
         <v>60</v>
       </c>
       <c r="K51" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>16</v>
@@ -26236,22 +26236,22 @@
       </c>
       <c r="H52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I52" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J52" s="4">
         <v>30</v>
       </c>
       <c r="K52" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>16</v>
@@ -26332,22 +26332,22 @@
       </c>
       <c r="H53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I53" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J53" s="4">
         <v>45</v>
       </c>
       <c r="K53" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>16</v>
@@ -26428,22 +26428,22 @@
       </c>
       <c r="H54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I54" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J54" s="4">
         <v>60</v>
       </c>
       <c r="K54" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>16</v>
@@ -26524,22 +26524,22 @@
       </c>
       <c r="H55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I55" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J55" s="4">
         <v>30</v>
       </c>
       <c r="K55" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>16</v>
@@ -26620,22 +26620,22 @@
       </c>
       <c r="H56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I56" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J56" s="4">
         <v>45</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45741</v>
+        <v>45747</v>
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-03-25</v>
+        <v>2025-03-31</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>16</v>
@@ -26716,22 +26716,22 @@
       </c>
       <c r="H57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I57" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J57" s="4">
         <v>60</v>
       </c>
       <c r="K57" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45756</v>
+        <v>45762</v>
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-04-09</v>
+        <v>2025-04-15</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>16</v>
@@ -26812,22 +26812,22 @@
       </c>
       <c r="H58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I58" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J58" s="4">
         <v>1</v>
       </c>
       <c r="K58" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>4</v>
@@ -26904,22 +26904,22 @@
       </c>
       <c r="H59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J59" s="4">
         <v>1</v>
       </c>
       <c r="K59" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>4</v>
@@ -26998,22 +26998,22 @@
       </c>
       <c r="H60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I60" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J60" s="4">
         <v>1</v>
       </c>
       <c r="K60" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" ref="L60:L69" ca="1" si="4">TEXT(K60, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>4</v>
@@ -27090,22 +27090,22 @@
       </c>
       <c r="H61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I61" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J61" s="4">
         <v>1</v>
       </c>
       <c r="K61" s="4">
         <f t="shared" ref="K61:K69" ca="1" si="5">(DATE(LEFT(I61,4),MID(I61,6,2), RIGHT(I61,2)))+(J61-1)</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>4</v>
@@ -27184,22 +27184,22 @@
       </c>
       <c r="H62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K62" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>4</v>
@@ -27278,22 +27278,22 @@
       </c>
       <c r="H63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K63" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>4</v>
@@ -27372,22 +27372,22 @@
       </c>
       <c r="H64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I64" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K64" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>4</v>
@@ -27468,22 +27468,22 @@
       </c>
       <c r="H65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I65" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K65" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>4</v>
@@ -27564,22 +27564,22 @@
       </c>
       <c r="H66" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I66" s="4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K66" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>4</v>
@@ -27658,22 +27658,22 @@
       </c>
       <c r="H67" s="4">
         <f t="shared" ref="H67:H69" ca="1" si="6">TODAY()+G67</f>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I67" s="4" t="str">
         <f t="shared" ref="I67:I69" ca="1" si="7">TEXT(H67, "yyyy-mm-dd")</f>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K67" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>4</v>
@@ -27752,22 +27752,22 @@
       </c>
       <c r="H68" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I68" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="K68" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45711</v>
+        <v>45717</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-02-23</v>
+        <v>2025-03-01</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>4</v>
@@ -27848,22 +27848,22 @@
       </c>
       <c r="H69" s="4">
         <f t="shared" ca="1" si="6"/>
-        <v>45697</v>
+        <v>45703</v>
       </c>
       <c r="I69" s="4" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>2025-02-09</v>
+        <v>2025-02-15</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K69" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>45726</v>
+        <v>45732</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2025-03-10</v>
+        <v>2025-03-16</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>4</v>
